--- a/app/assets/excel/Book1.xlsx
+++ b/app/assets/excel/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iinokazuteru/Desktop/geeksalon/original/app/assets/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iinokazuteru/Desktop/geeksalon/mangalife/app/assets/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3765DE-1556-F74A-A789-93F24047CB14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63E57D0-F13E-744B-9F34-10750FD7BEF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2525BD1C-39FE-4547-8E10-D5BD73AED690}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="237">
   <si>
     <t>雑誌</t>
     <rPh sb="0" eb="2">
@@ -125,11 +125,849 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボンボン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>001001001016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001001002001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001001002002</t>
+  </si>
+  <si>
+    <t>001001002003</t>
+  </si>
+  <si>
+    <t>001001002004</t>
+  </si>
+  <si>
+    <t>001001002005</t>
+  </si>
+  <si>
+    <t>001001002006</t>
+  </si>
+  <si>
+    <t>001001002007</t>
+  </si>
+  <si>
+    <t>001001002008</t>
+  </si>
+  <si>
+    <t>001001002009</t>
+  </si>
+  <si>
+    <t>001001002011</t>
+  </si>
+  <si>
+    <t>001001002012</t>
+  </si>
+  <si>
+    <t>001001002013</t>
+  </si>
+  <si>
+    <t>001001002014</t>
+  </si>
+  <si>
+    <t>001001002015</t>
+  </si>
+  <si>
+    <t>001001002016</t>
+  </si>
+  <si>
+    <t>001001002017</t>
+  </si>
+  <si>
+    <t>001001002018</t>
+  </si>
+  <si>
+    <t>001001002019</t>
+  </si>
+  <si>
+    <t>001001002020</t>
+  </si>
+  <si>
+    <t>001001002022</t>
+  </si>
+  <si>
+    <t>001001002023</t>
+  </si>
+  <si>
+    <t>001001002024</t>
+  </si>
+  <si>
+    <t>001001002025</t>
+  </si>
+  <si>
+    <t>001001002026</t>
+  </si>
+  <si>
+    <t>少女</t>
+    <rPh sb="0" eb="2">
+      <t>ショウj</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミックボンボン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリンセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なかよし</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヨsh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーガレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りぼん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花とゆめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイーンズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WINGS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちゃお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あすか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眠れぬ夜の奇妙なまんが</t>
+    <rPh sb="0" eb="1">
+      <t>ヨr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーズコミックスコレクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDコミックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミックスデザート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミックスB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Asuka comics DX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zero-sum comics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>百合姫コミックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MDCジーンS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flowers comics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001001003001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001001003002</t>
+  </si>
+  <si>
+    <t>001001003003</t>
+  </si>
+  <si>
+    <t>001001003004</t>
+  </si>
+  <si>
+    <t>001001003005</t>
+  </si>
+  <si>
+    <t>001001003006</t>
+  </si>
+  <si>
+    <t>001001003007</t>
+  </si>
+  <si>
+    <t>001001003008</t>
+  </si>
+  <si>
+    <t>001001003009</t>
+  </si>
+  <si>
+    <t>001001003010</t>
+  </si>
+  <si>
+    <t>001001003011</t>
+  </si>
+  <si>
+    <t>001001003013</t>
+  </si>
+  <si>
+    <t>001001003014</t>
+  </si>
+  <si>
+    <t>001001003015</t>
+  </si>
+  <si>
+    <t>001001003016</t>
+  </si>
+  <si>
+    <t>001001003017</t>
+  </si>
+  <si>
+    <t>001001003018</t>
+  </si>
+  <si>
+    <t>001001003019</t>
+  </si>
+  <si>
+    <t>001001003020</t>
+  </si>
+  <si>
+    <t>001001003021</t>
+  </si>
+  <si>
+    <t>001001003022</t>
+  </si>
+  <si>
+    <t>001001003023</t>
+  </si>
+  <si>
+    <t>001001003024</t>
+  </si>
+  <si>
+    <t>001001003025</t>
+  </si>
+  <si>
+    <t>001001003026</t>
+  </si>
+  <si>
+    <t>001001003027</t>
+  </si>
+  <si>
+    <t>001001003028</t>
+  </si>
+  <si>
+    <t>001001003029</t>
+  </si>
+  <si>
+    <t>001001003030</t>
+  </si>
+  <si>
+    <t>001001003031</t>
+  </si>
+  <si>
+    <t>001001003032</t>
+  </si>
+  <si>
+    <t>001001003033</t>
+  </si>
+  <si>
+    <t>001001003034</t>
+  </si>
+  <si>
+    <t>001001003035</t>
+  </si>
+  <si>
+    <t>001001003036</t>
+  </si>
+  <si>
+    <t>001001003037</t>
+  </si>
+  <si>
+    <t>001001003038</t>
+  </si>
+  <si>
+    <t>001001003039</t>
+  </si>
+  <si>
+    <t>001001003040</t>
+  </si>
+  <si>
+    <t>001001003041</t>
+  </si>
+  <si>
+    <t>001001003042</t>
+  </si>
+  <si>
+    <t>001001003043</t>
+  </si>
+  <si>
+    <t>001001003044</t>
+  </si>
+  <si>
+    <t>001001003045</t>
+  </si>
+  <si>
+    <t>001001003046</t>
+  </si>
+  <si>
+    <t>001001003047</t>
+  </si>
+  <si>
+    <t>001001003048</t>
+  </si>
+  <si>
+    <t>001001003049</t>
+  </si>
+  <si>
+    <t>001001003050</t>
+  </si>
+  <si>
+    <t>001001003051</t>
+  </si>
+  <si>
+    <t>001001003052</t>
+  </si>
+  <si>
+    <t>001001003053</t>
+  </si>
+  <si>
+    <t>001001003054</t>
+  </si>
+  <si>
+    <t>001001003055</t>
+  </si>
+  <si>
+    <t>001001003056</t>
+  </si>
+  <si>
+    <t>001001003057</t>
+  </si>
+  <si>
+    <t>001001003058</t>
+  </si>
+  <si>
+    <t>001001003059</t>
+  </si>
+  <si>
+    <t>青年</t>
+    <rPh sb="0" eb="2">
+      <t>セイネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤングチャンピオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンデー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤングマガジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーニングKC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤングジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイボーイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤングサンデー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェッツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶんか社</t>
+    <rPh sb="0" eb="2">
+      <t>ブンk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンピオンRED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アフタヌーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCフラッパーS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤングキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ヤングガンガン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガンガンWING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イブニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンチ</t>
+    <rPh sb="0" eb="2">
+      <t>バンch</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トクマ</t>
+    <rPh sb="0" eb="2">
+      <t>トk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニチブン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャイブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Daio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gファンタジー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンガショップシリーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンサン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まんがタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望</t>
+    <rPh sb="0" eb="2">
+      <t>キボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マガジンZK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンデーGX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イッキ</t>
+    <rPh sb="0" eb="2">
+      <t>イッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNAメディアコミックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンブー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホビージャパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電撃</t>
+    <rPh sb="0" eb="2">
+      <t>デンゲk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲッサン少年サンデー</t>
+    <rPh sb="0" eb="2">
+      <t>ゲッサn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YKC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガンガンコミックスJOKER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近代麻雀</t>
+    <rPh sb="0" eb="2">
+      <t>キンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼノン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まんがタイムKRコミックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCアライブS</t>
+    <rPh sb="0" eb="2">
+      <t>アラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エモーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレックスコミックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレイド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001001004001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001001004002</t>
+  </si>
+  <si>
+    <t>001001004003</t>
+  </si>
+  <si>
+    <t>001001004004</t>
+  </si>
+  <si>
+    <t>001001004005</t>
+  </si>
+  <si>
+    <t>001001004006</t>
+  </si>
+  <si>
+    <t>001001004007</t>
+  </si>
+  <si>
+    <t>001001004008</t>
+  </si>
+  <si>
+    <t>001001004009</t>
+  </si>
+  <si>
+    <t>001001004010</t>
+  </si>
+  <si>
+    <t>001001004011</t>
+  </si>
+  <si>
+    <t>001001004012</t>
+  </si>
+  <si>
+    <t>レディース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋田レディース</t>
+    <rPh sb="0" eb="2">
+      <t>アk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーラブKC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤングユー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュディ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レディー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋愛max comics</t>
+    <rPh sb="0" eb="2">
+      <t>レンア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Missy comics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Emerald comics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッシィコミックスパステル</t>
+    <rPh sb="0" eb="1">
+      <t>コミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光彩コミックス</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001001004013</t>
+  </si>
+  <si>
+    <t>001001004014</t>
+  </si>
+  <si>
+    <t>001001006001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッシィコミックスピンクパンチ！</t>
+    <rPh sb="0" eb="1">
+      <t>コミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集英社漫画文庫</t>
+    <rPh sb="0" eb="2">
+      <t>マンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講談社漫画文庫</t>
+    <rPh sb="0" eb="2">
+      <t>マンg</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学館文庫</t>
+    <rPh sb="0" eb="2">
+      <t>ブンk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学館コロコロ文庫</t>
+    <rPh sb="0" eb="1">
+      <t>ショウガッカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソノラマコミック文庫</t>
+    <rPh sb="0" eb="2">
+      <t>ブンk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白泉社文庫</t>
+    <rPh sb="0" eb="2">
+      <t>ブンk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>潮漫画文庫</t>
+    <rPh sb="0" eb="1">
+      <t>シオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹書房漫画文庫</t>
+    <rPh sb="0" eb="1">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行之日本社漫画文庫</t>
+    <rPh sb="0" eb="2">
+      <t>ジt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001001006002</t>
+  </si>
+  <si>
+    <t>001001006003</t>
+  </si>
+  <si>
+    <t>001001006004</t>
+  </si>
+  <si>
+    <t>001001006005</t>
+  </si>
+  <si>
+    <t>001001006006</t>
+  </si>
+  <si>
+    <t>001001006007</t>
+  </si>
+  <si>
+    <t>001001006008</t>
+  </si>
+  <si>
+    <t>001001006009</t>
+  </si>
+  <si>
+    <t>001001006010</t>
+  </si>
+  <si>
+    <t>文庫</t>
+    <rPh sb="0" eb="2">
+      <t>ブンk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001001012</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -512,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45551C4-46D6-ED4A-ACF2-D4796D80C786}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -644,76 +1482,1353 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="5:6">
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="5:6">
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="5:6">
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="5:6">
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="5:6">
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="5:6">
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="5:6">
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="5:6">
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B109" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B115" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B117" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="3"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="3"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="3"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="3"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
